--- a/富婆秘籍/富婆秘籍.xlsx
+++ b/富婆秘籍/富婆秘籍.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>持有个数：</t>
   </si>
@@ -89,7 +89,7 @@
     <t>002560</t>
   </si>
   <si>
-    <t>海富通股票混合</t>
+    <t>海富通股票混合_吕越超</t>
   </si>
   <si>
     <t>广发双擎升级混合_刘格菘</t>
@@ -284,7 +284,40 @@
     <t>006476</t>
   </si>
   <si>
+    <t>规则</t>
+  </si>
+  <si>
     <t>17/2</t>
+  </si>
+  <si>
+    <t>18/2</t>
+  </si>
+  <si>
+    <t>19/2</t>
+  </si>
+  <si>
+    <t>20/2</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>7-0.5</t>
+  </si>
+  <si>
+    <t>30-0.5</t>
+  </si>
+  <si>
+    <t>海富通股票混合</t>
+  </si>
+  <si>
+    <t>7-0.35</t>
+  </si>
+  <si>
+    <t>QDII</t>
+  </si>
+  <si>
+    <t>广发全球精选股票</t>
   </si>
 </sst>
 </file>
@@ -292,11 +325,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -321,22 +354,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -344,48 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,10 +376,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,6 +414,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -427,9 +468,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,22 +485,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +549,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,13 +621,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,79 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,37 +681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,21 +846,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -866,6 +884,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -892,17 +936,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -917,10 +950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,133 +962,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,9 +1568,9 @@
   <dimension ref="A1:XFD42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -18946,12 +18979,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFC42"/>
+  <dimension ref="A1:XFC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -18962,12 +18995,13 @@
     <col min="4" max="6" width="8.88888888888889" style="1"/>
     <col min="7" max="7" width="7.11111111111111" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.44444444444444" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="2"/>
-    <col min="10" max="10" width="8" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8" style="2" customWidth="1"/>
     <col min="11" max="12" width="7.77777777777778" style="2" customWidth="1"/>
     <col min="13" max="16" width="8.88888888888889" style="1"/>
     <col min="17" max="17" width="7.33333333333333" style="1" customWidth="1"/>
-    <col min="18" max="16383" width="8.88888888888889" style="1"/>
+    <col min="18" max="19" width="8.88888888888889" style="1"/>
+    <col min="20" max="20" width="12.8888888888889" style="1"/>
+    <col min="21" max="16383" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:16">
@@ -18976,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3">
-        <f>COUNTIF(D3:D997,"&lt;&gt;0")-COUNTBLANK(D3:D997)</f>
+        <f>COUNTIF(D3:D998,"&lt;&gt;0")-COUNTBLANK(D3:D998)</f>
         <v>29</v>
       </c>
       <c r="D1" s="3"/>
@@ -18984,8 +19018,8 @@
         <v>1</v>
       </c>
       <c r="F1" s="3">
-        <f>SUM(E3:E9997)</f>
-        <v>56.95</v>
+        <f>SUM(E3:E9998)</f>
+        <v>62.4</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -18993,19 +19027,19 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4">
         <f>SUM(E3:E26)</f>
-        <v>29.8</v>
+        <v>34.75</v>
       </c>
       <c r="J1" s="21">
         <f>I1/F1</f>
-        <v>0.523266022827041</v>
+        <v>0.556891025641026</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="23"/>
       <c r="M1" s="24">
-        <f>SUM(E28:E9999)</f>
-        <v>27.15</v>
+        <f>SUM(E28:E10000)</f>
+        <v>27.65</v>
       </c>
       <c r="N1" s="24"/>
       <c r="O1" s="24" t="s">
@@ -19023,7 +19057,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -19035,11 +19069,17 @@
         <v>10</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="K2" s="25"/>
       <c r="L2" s="26"/>
     </row>
@@ -19050,19 +19090,25 @@
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>19</v>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D26" si="0">E3*1000</f>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(E3)</f>
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-0.5</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="26"/>
@@ -19074,8 +19120,8 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2">
-        <v>320007</v>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
@@ -19086,7 +19132,7 @@
       </c>
       <c r="F4" s="9">
         <f>SUM(E4:E11)</f>
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="26"/>
@@ -19096,8 +19142,8 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>23</v>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
@@ -19107,17 +19153,16 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="2"/>
       <c r="K5" s="27"/>
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>519005</v>
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
@@ -19127,7 +19172,6 @@
         <v>2</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
       <c r="K6" s="27"/>
       <c r="L6" s="26"/>
     </row>
@@ -19136,17 +19180,20 @@
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>26</v>
+      <c r="C7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="2">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="11"/>
+      <c r="I7" s="2">
+        <v>0.45</v>
+      </c>
       <c r="K7" s="27"/>
       <c r="L7" s="26"/>
     </row>
@@ -19155,8 +19202,8 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>28</v>
+      <c r="C8" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -19209,12 +19256,18 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="H11" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="I11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="27"/>
       <c r="L11" s="26"/>
     </row>
@@ -19230,14 +19283,17 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="9">
         <f>SUM(E12:E13)</f>
         <v>2.5</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.5</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="26"/>
@@ -19252,12 +19308,15 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="13"/>
+      <c r="J13" s="2">
+        <v>-0.5</v>
+      </c>
       <c r="K13" s="27"/>
       <c r="L13" s="26"/>
     </row>
@@ -19297,14 +19356,20 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="9">
         <f>SUM(E15:E19)</f>
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="26"/>
@@ -19376,12 +19441,18 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="13"/>
+      <c r="I19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.5</v>
+      </c>
       <c r="K19" s="27"/>
       <c r="L19" s="26"/>
     </row>
@@ -19453,7 +19524,7 @@
       <c r="K22" s="27"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:16">
       <c r="A23" s="10"/>
       <c r="B23" s="17" t="s">
         <v>57</v>
@@ -19471,6 +19542,10 @@
       <c r="F23" s="11"/>
       <c r="K23" s="27"/>
       <c r="L23" s="26"/>
+      <c r="P23" s="1">
+        <f>4622.3/5</f>
+        <v>924.46</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="10"/>
@@ -35917,15 +35992,24 @@
         <v>64</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" ref="D28:D40" si="1">E28*1000</f>
-        <v>6000</v>
+        <f t="shared" ref="D28:D41" si="1">E28*1000</f>
+        <v>3000</v>
       </c>
       <c r="E28" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" s="11">
         <f>SUM(E28:E33)</f>
-        <v>11.5</v>
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>-1</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="26"/>
@@ -35939,7 +36023,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="2">
-        <f>E29*1000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
@@ -36011,17 +36095,21 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="27"/>
       <c r="L32" s="26"/>
@@ -36036,14 +36124,16 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>-1</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="27"/>
@@ -36090,7 +36180,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>79</v>
@@ -36106,14 +36196,14 @@
         <v>5.6</v>
       </c>
       <c r="F36" s="9">
-        <f>SUM(E36:E37)</f>
-        <v>9.6</v>
+        <f>SUM(E36:E38)</f>
+        <v>10.1</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="12"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
@@ -36127,112 +36217,140 @@
       <c r="E37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="11"/>
       <c r="K37" s="27"/>
       <c r="L37" s="26"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>83</v>
-      </c>
+      <c r="A38" s="12"/>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" ref="F38:F40" si="2">SUM(E38)</f>
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="I38" s="2">
+        <v>0.5</v>
       </c>
       <c r="K38" s="27"/>
       <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
       <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="F39:F41" si="2">SUM(E39)</f>
+        <v>2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.5</v>
       </c>
       <c r="K39" s="27"/>
       <c r="L39" s="26"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="A40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="E40" s="9">
-        <v>2</v>
-      </c>
-      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="27"/>
       <c r="L40" s="26"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="7:12">
-      <c r="G41" s="2">
-        <f>SUM(G3:G40)</f>
+    <row r="41" spans="1:12">
+      <c r="A41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="7:12">
+      <c r="G42" s="2">
+        <f>SUM(G3:G41)</f>
         <v>-1.3</v>
       </c>
-      <c r="H41" s="2">
-        <f>SUM(H3:H40)</f>
+      <c r="H42" s="2">
+        <f>SUM(H3:H41)</f>
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <f>SUM(I3:I41)</f>
+        <v>3.45</v>
+      </c>
+      <c r="J42" s="2">
+        <f>SUM(J3:J41)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="2">
-        <f>SUM(I3:I40)</f>
+      <c r="K42" s="27">
+        <f>SUM(K3:K41)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="2">
-        <f>SUM(J3:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="27">
-        <f>SUM(K3:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="13"/>
+      <c r="L42" s="13"/>
     </row>
-    <row r="42" spans="7:12">
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
+    <row r="43" spans="7:12">
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -36244,39 +36362,39 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="F4:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F15:F19"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F28:F33"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F36:F38"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E26 E28:E40">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
-      <formula>0.01</formula>
-      <formula>3</formula>
+  <conditionalFormatting sqref="E3:E26 E28:E41">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
+      <formula>6.01</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>3.01</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
-      <formula>6.01</formula>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+      <formula>0.01</formula>
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F26 F38:F40 F42:F1048576 F36 F34 F28">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0.01</formula>
-      <formula>3</formula>
+  <conditionalFormatting sqref="F3:F26 F28 F34 F36 F39:F41 F43:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>6.01</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>3.01</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>6.01</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+      <formula>0.01</formula>
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
